--- a/Profesionales_Vacaciones.xlsx
+++ b/Profesionales_Vacaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A4A662-60A1-460D-954A-907589D14397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71046D6-286C-4044-842D-BB72032561B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A4CD349C-2FA9-4880-85D6-A7FE685445F2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A4CD349C-2FA9-4880-85D6-A7FE685445F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1368,26 +1368,26 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="19">
         <v>44235</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="19">
         <v>44239</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
